--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/22/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/22/FD_Curve.xlsx
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.640779999999999</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>6640.78</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.3717</v>
+        <v>7.86267</v>
       </c>
       <c r="C9" t="n">
-        <v>7371.7</v>
+        <v>7862.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247936</v>
+        <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>8.147489999999999</v>
+        <v>8.92052</v>
       </c>
       <c r="C10" t="n">
-        <v>8147.49</v>
+        <v>8920.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278861</v>
+        <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>8.93399</v>
+        <v>9.94866</v>
       </c>
       <c r="C11" t="n">
-        <v>8933.99</v>
+        <v>9948.66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309804</v>
+        <v>0.309773</v>
       </c>
       <c r="B12" t="n">
-        <v>9.520250000000001</v>
+        <v>10.7589</v>
       </c>
       <c r="C12" t="n">
-        <v>9520.25</v>
+        <v>10758.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340729</v>
+        <v>0.340699</v>
       </c>
       <c r="B13" t="n">
-        <v>9.995139999999999</v>
+        <v>11.4699</v>
       </c>
       <c r="C13" t="n">
-        <v>9995.139999999999</v>
+        <v>11469.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371654</v>
+        <v>0.371624</v>
       </c>
       <c r="B14" t="n">
-        <v>10.323</v>
+        <v>12.1681</v>
       </c>
       <c r="C14" t="n">
-        <v>10323</v>
+        <v>12168.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402579</v>
+        <v>0.402549</v>
       </c>
       <c r="B15" t="n">
-        <v>10.4035</v>
+        <v>12.5503</v>
       </c>
       <c r="C15" t="n">
-        <v>10403.5</v>
+        <v>12550.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433504</v>
+        <v>0.433474</v>
       </c>
       <c r="B16" t="n">
-        <v>10.3947</v>
+        <v>12.8117</v>
       </c>
       <c r="C16" t="n">
-        <v>10394.7</v>
+        <v>12811.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.46443</v>
+        <v>0.464399</v>
       </c>
       <c r="B17" t="n">
-        <v>10.3756</v>
+        <v>12.8095</v>
       </c>
       <c r="C17" t="n">
-        <v>10375.6</v>
+        <v>12809.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495355</v>
+        <v>0.495324</v>
       </c>
       <c r="B18" t="n">
-        <v>10.3518</v>
+        <v>12.7793</v>
       </c>
       <c r="C18" t="n">
-        <v>10351.8</v>
+        <v>12779.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.52628</v>
+        <v>0.526249</v>
       </c>
       <c r="B19" t="n">
-        <v>10.327</v>
+        <v>12.7349</v>
       </c>
       <c r="C19" t="n">
-        <v>10327</v>
+        <v>12734.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557205</v>
+        <v>0.5571739999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>10.3012</v>
+        <v>12.6868</v>
       </c>
       <c r="C20" t="n">
-        <v>10301.2</v>
+        <v>12686.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.58813</v>
+        <v>0.588099</v>
       </c>
       <c r="B21" t="n">
-        <v>10.2741</v>
+        <v>12.6362</v>
       </c>
       <c r="C21" t="n">
-        <v>10274.1</v>
+        <v>12636.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191719999999999</v>
+        <v>0.6191410000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>10.246</v>
+        <v>12.5834</v>
       </c>
       <c r="C22" t="n">
-        <v>10246</v>
+        <v>12583.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650344</v>
+        <v>0.650313</v>
       </c>
       <c r="B23" t="n">
-        <v>10.2166</v>
+        <v>12.5275</v>
       </c>
       <c r="C23" t="n">
-        <v>10216.6</v>
+        <v>12527.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681521</v>
+        <v>0.681486</v>
       </c>
       <c r="B24" t="n">
-        <v>10.1856</v>
+        <v>12.4657</v>
       </c>
       <c r="C24" t="n">
-        <v>10185.6</v>
+        <v>12465.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712694</v>
+        <v>0.712663</v>
       </c>
       <c r="B25" t="n">
-        <v>10.1531</v>
+        <v>12.3925</v>
       </c>
       <c r="C25" t="n">
-        <v>10153.1</v>
+        <v>12392.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743866</v>
+        <v>0.7438360000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>10.1193</v>
+        <v>12.3178</v>
       </c>
       <c r="C26" t="n">
-        <v>10119.3</v>
+        <v>12317.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775043</v>
+        <v>0.775013</v>
       </c>
       <c r="B27" t="n">
-        <v>10.0843</v>
+        <v>12.2318</v>
       </c>
       <c r="C27" t="n">
-        <v>10084.3</v>
+        <v>12231.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806216</v>
+        <v>0.806185</v>
       </c>
       <c r="B28" t="n">
-        <v>10.0473</v>
+        <v>12.1421</v>
       </c>
       <c r="C28" t="n">
-        <v>10047.3</v>
+        <v>12142.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837389</v>
+        <v>0.837358</v>
       </c>
       <c r="B29" t="n">
-        <v>10.0095</v>
+        <v>12.0436</v>
       </c>
       <c r="C29" t="n">
-        <v>10009.5</v>
+        <v>12043.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685659999999999</v>
+        <v>0.8685349999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>9.970510000000001</v>
+        <v>11.9391</v>
       </c>
       <c r="C30" t="n">
-        <v>9970.51</v>
+        <v>11939.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899738</v>
+        <v>0.899707</v>
       </c>
       <c r="B31" t="n">
-        <v>9.92999</v>
+        <v>11.8286</v>
       </c>
       <c r="C31" t="n">
-        <v>9929.99</v>
+        <v>11828.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930911</v>
+        <v>0.93088</v>
       </c>
       <c r="B32" t="n">
-        <v>9.88752</v>
+        <v>11.7091</v>
       </c>
       <c r="C32" t="n">
-        <v>9887.52</v>
+        <v>11709.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620880000000001</v>
+        <v>0.9620570000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>9.84369</v>
+        <v>11.5865</v>
       </c>
       <c r="C33" t="n">
-        <v>9843.690000000001</v>
+        <v>11586.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.99326</v>
+        <v>0.993229</v>
       </c>
       <c r="B34" t="n">
-        <v>9.798399999999999</v>
+        <v>11.4538</v>
       </c>
       <c r="C34" t="n">
-        <v>9798.4</v>
+        <v>11453.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02458</v>
+        <v>1.02426</v>
       </c>
       <c r="B35" t="n">
-        <v>9.75076</v>
+        <v>11.3178</v>
       </c>
       <c r="C35" t="n">
-        <v>9750.76</v>
+        <v>11317.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05523</v>
       </c>
       <c r="B36" t="n">
-        <v>9.701879999999999</v>
+        <v>11.1732</v>
       </c>
       <c r="C36" t="n">
-        <v>9701.879999999999</v>
+        <v>11173.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08733</v>
+        <v>1.0862</v>
       </c>
       <c r="B37" t="n">
-        <v>9.651620000000001</v>
+        <v>11.0225</v>
       </c>
       <c r="C37" t="n">
-        <v>9651.620000000001</v>
+        <v>11022.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11872</v>
+        <v>1.11717</v>
       </c>
       <c r="B38" t="n">
-        <v>9.599200000000002</v>
+        <v>10.8659</v>
       </c>
       <c r="C38" t="n">
-        <v>9599.200000000001</v>
+        <v>10865.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1501</v>
+        <v>1.14798</v>
       </c>
       <c r="B39" t="n">
-        <v>9.545350000000001</v>
+        <v>7.526350000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>9545.35</v>
+        <v>7526.35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18148</v>
+        <v>1.17919</v>
       </c>
       <c r="B40" t="n">
-        <v>9.4895</v>
+        <v>7.65216</v>
       </c>
       <c r="C40" t="n">
-        <v>9489.5</v>
+        <v>7652.16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21262</v>
+        <v>1.21001</v>
       </c>
       <c r="B41" t="n">
-        <v>9.43216</v>
+        <v>10.0882</v>
       </c>
       <c r="C41" t="n">
-        <v>9432.16</v>
+        <v>10088.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24374</v>
+        <v>1.24135</v>
       </c>
       <c r="B42" t="n">
-        <v>9.371780000000001</v>
+        <v>10.8705</v>
       </c>
       <c r="C42" t="n">
-        <v>9371.780000000001</v>
+        <v>10870.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.2746</v>
+        <v>1.27229</v>
       </c>
       <c r="B43" t="n">
-        <v>9.3101</v>
+        <v>10.0869</v>
       </c>
       <c r="C43" t="n">
-        <v>9310.1</v>
+        <v>10086.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30576</v>
+        <v>1.30314</v>
       </c>
       <c r="B44" t="n">
-        <v>9.244530000000001</v>
+        <v>9.88569</v>
       </c>
       <c r="C44" t="n">
-        <v>9244.530000000001</v>
+        <v>9885.690000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33656</v>
+        <v>1.33423</v>
       </c>
       <c r="B45" t="n">
-        <v>9.17681</v>
+        <v>9.96439</v>
       </c>
       <c r="C45" t="n">
-        <v>9176.809999999999</v>
+        <v>9964.389999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36778</v>
+        <v>1.36493</v>
       </c>
       <c r="B46" t="n">
-        <v>9.105360000000001</v>
+        <v>9.867139999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>9105.360000000001</v>
+        <v>9867.139999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39865</v>
+        <v>1.39614</v>
       </c>
       <c r="B47" t="n">
-        <v>9.030469999999999</v>
+        <v>9.545950000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>9030.469999999999</v>
+        <v>9545.950000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42971</v>
+        <v>1.42718</v>
       </c>
       <c r="B48" t="n">
-        <v>8.95129</v>
+        <v>9.300549999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>8951.290000000001</v>
+        <v>9300.549999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46075</v>
+        <v>1.4582</v>
       </c>
       <c r="B49" t="n">
-        <v>8.86833</v>
+        <v>9.090870000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>8868.33</v>
+        <v>9090.870000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49165</v>
+        <v>1.48924</v>
       </c>
       <c r="B50" t="n">
-        <v>8.78182</v>
+        <v>8.911700000000002</v>
       </c>
       <c r="C50" t="n">
-        <v>8781.82</v>
+        <v>8911.700000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52275</v>
+        <v>1.52004</v>
       </c>
       <c r="B51" t="n">
-        <v>8.691129999999999</v>
+        <v>8.69815</v>
       </c>
       <c r="C51" t="n">
-        <v>8691.129999999999</v>
+        <v>8698.15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55361</v>
+        <v>1.55129</v>
       </c>
       <c r="B52" t="n">
-        <v>8.596350000000001</v>
+        <v>8.433280000000002</v>
       </c>
       <c r="C52" t="n">
-        <v>8596.35</v>
+        <v>8433.280000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58478</v>
+        <v>1.58196</v>
       </c>
       <c r="B53" t="n">
-        <v>8.49685</v>
+        <v>8.21869</v>
       </c>
       <c r="C53" t="n">
-        <v>8496.85</v>
+        <v>8218.690000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.6155</v>
+        <v>1.61333</v>
       </c>
       <c r="B54" t="n">
-        <v>8.394540000000001</v>
+        <v>8.140610000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>8394.540000000001</v>
+        <v>8140.61</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64678</v>
+        <v>1.64401</v>
       </c>
       <c r="B55" t="n">
-        <v>8.286389999999999</v>
+        <v>7.89645</v>
       </c>
       <c r="C55" t="n">
-        <v>8286.389999999999</v>
+        <v>7896.45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67752</v>
+        <v>1.67532</v>
       </c>
       <c r="B56" t="n">
-        <v>8.176159999999999</v>
+        <v>7.69332</v>
       </c>
       <c r="C56" t="n">
-        <v>8176.16</v>
+        <v>7693.32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70881</v>
+        <v>1.70617</v>
       </c>
       <c r="B57" t="n">
-        <v>8.0604</v>
+        <v>7.491510000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>8060.4</v>
+        <v>7491.51</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73952</v>
+        <v>1.73717</v>
       </c>
       <c r="B58" t="n">
-        <v>7.94395</v>
+        <v>7.3918</v>
       </c>
       <c r="C58" t="n">
-        <v>7943.95</v>
+        <v>7391.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77079</v>
+        <v>1.76834</v>
       </c>
       <c r="B59" t="n">
-        <v>7.822430000000001</v>
+        <v>7.26803</v>
       </c>
       <c r="C59" t="n">
-        <v>7822.43</v>
+        <v>7268.03</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.8016</v>
+        <v>1.79892</v>
       </c>
       <c r="B60" t="n">
-        <v>7.70075</v>
+        <v>7.11504</v>
       </c>
       <c r="C60" t="n">
-        <v>7700.75</v>
+        <v>7115.04</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83273</v>
+        <v>1.83039</v>
       </c>
       <c r="B61" t="n">
-        <v>7.57587</v>
+        <v>6.92651</v>
       </c>
       <c r="C61" t="n">
-        <v>7575.87</v>
+        <v>6926.51</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86373</v>
+        <v>1.86134</v>
       </c>
       <c r="B62" t="n">
-        <v>7.45008</v>
+        <v>6.8216</v>
       </c>
       <c r="C62" t="n">
-        <v>7450.08</v>
+        <v>6821.6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89455</v>
+        <v>1.89194</v>
       </c>
       <c r="B63" t="n">
-        <v>7.323510000000001</v>
+        <v>6.695010000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>7323.51</v>
+        <v>6695.01</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92582</v>
+        <v>1.92349</v>
       </c>
       <c r="B64" t="n">
-        <v>7.19442</v>
+        <v>6.60445</v>
       </c>
       <c r="C64" t="n">
-        <v>7194.42</v>
+        <v>6604.45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.9564</v>
+        <v>1.95435</v>
       </c>
       <c r="B65" t="n">
-        <v>7.06792</v>
+        <v>6.47201</v>
       </c>
       <c r="C65" t="n">
-        <v>7067.92</v>
+        <v>6472.01</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98777</v>
+        <v>1.98468</v>
       </c>
       <c r="B66" t="n">
-        <v>6.93903</v>
+        <v>6.363510000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>6939.03</v>
+        <v>6363.51</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01897</v>
+        <v>2.01646</v>
       </c>
       <c r="B67" t="n">
-        <v>6.81242</v>
+        <v>6.306319999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>6812.42</v>
+        <v>6306.32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04926</v>
+        <v>2.04753</v>
       </c>
       <c r="B68" t="n">
-        <v>6.68912</v>
+        <v>6.184</v>
       </c>
       <c r="C68" t="n">
-        <v>6689.12</v>
+        <v>6184</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08088</v>
+        <v>2.07855</v>
       </c>
       <c r="B69" t="n">
-        <v>6.5635</v>
+        <v>6.09883</v>
       </c>
       <c r="C69" t="n">
-        <v>6563.5</v>
+        <v>6098.83</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11179</v>
+        <v>2.109</v>
       </c>
       <c r="B70" t="n">
-        <v>6.44217</v>
+        <v>5.98816</v>
       </c>
       <c r="C70" t="n">
-        <v>6442.17</v>
+        <v>5988.16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14219</v>
+        <v>2.14043</v>
       </c>
       <c r="B71" t="n">
-        <v>6.32398</v>
+        <v>5.95324</v>
       </c>
       <c r="C71" t="n">
-        <v>6323.98</v>
+        <v>5953.24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.1742</v>
+        <v>2.17185</v>
       </c>
       <c r="B72" t="n">
-        <v>6.20484</v>
+        <v>5.85483</v>
       </c>
       <c r="C72" t="n">
-        <v>6204.84</v>
+        <v>5854.83</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.2047</v>
+        <v>2.20224</v>
       </c>
       <c r="B73" t="n">
-        <v>6.09049</v>
+        <v>5.79411</v>
       </c>
       <c r="C73" t="n">
-        <v>6090.49</v>
+        <v>5794.11</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23527</v>
+        <v>2.23298</v>
       </c>
       <c r="B74" t="n">
-        <v>5.97993</v>
+        <v>5.70901</v>
       </c>
       <c r="C74" t="n">
-        <v>5979.93</v>
+        <v>5709.01</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26604</v>
+        <v>2.2649</v>
       </c>
       <c r="B75" t="n">
-        <v>5.872260000000001</v>
+        <v>5.66434</v>
       </c>
       <c r="C75" t="n">
-        <v>5872.26</v>
+        <v>5664.34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29713</v>
+        <v>2.29659</v>
       </c>
       <c r="B76" t="n">
-        <v>5.771020000000001</v>
+        <v>5.58332</v>
       </c>
       <c r="C76" t="n">
-        <v>5771.02</v>
+        <v>5583.32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32821</v>
+        <v>2.32648</v>
       </c>
       <c r="B77" t="n">
-        <v>5.673430000000001</v>
+        <v>5.53035</v>
       </c>
       <c r="C77" t="n">
-        <v>5673.43</v>
+        <v>5530.35</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.3593</v>
+        <v>2.35637</v>
       </c>
       <c r="B78" t="n">
-        <v>5.5794</v>
+        <v>5.5097</v>
       </c>
       <c r="C78" t="n">
-        <v>5579.4</v>
+        <v>5509.7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39038</v>
+        <v>2.38824</v>
       </c>
       <c r="B79" t="n">
-        <v>5.490390000000001</v>
+        <v>5.44186</v>
       </c>
       <c r="C79" t="n">
-        <v>5490.39</v>
+        <v>5441.86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42147</v>
+        <v>2.42066</v>
       </c>
       <c r="B80" t="n">
-        <v>5.40494</v>
+        <v>5.36906</v>
       </c>
       <c r="C80" t="n">
-        <v>5404.94</v>
+        <v>5369.06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45203</v>
+        <v>2.44923</v>
       </c>
       <c r="B81" t="n">
-        <v>5.32224</v>
+        <v>5.34903</v>
       </c>
       <c r="C81" t="n">
-        <v>5322.24</v>
+        <v>5349.03</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48535</v>
+        <v>2.48033</v>
       </c>
       <c r="B82" t="n">
-        <v>5.23773</v>
+        <v>5.319050000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>5237.73</v>
+        <v>5319.05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51852</v>
+        <v>2.5151</v>
       </c>
       <c r="B83" t="n">
-        <v>5.15729</v>
+        <v>5.2963</v>
       </c>
       <c r="C83" t="n">
-        <v>5157.29</v>
+        <v>5296.3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.55052</v>
+        <v>2.54722</v>
       </c>
       <c r="B84" t="n">
-        <v>5.08224</v>
+        <v>5.29537</v>
       </c>
       <c r="C84" t="n">
-        <v>5082.24</v>
+        <v>5295.37</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58252</v>
+        <v>2.57922</v>
       </c>
       <c r="B85" t="n">
-        <v>5.00942</v>
+        <v>5.29141</v>
       </c>
       <c r="C85" t="n">
-        <v>5009.42</v>
+        <v>5291.41</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61452</v>
+        <v>2.61122</v>
       </c>
       <c r="B86" t="n">
-        <v>4.93979</v>
+        <v>5.26603</v>
       </c>
       <c r="C86" t="n">
-        <v>4939.79</v>
+        <v>5266.03</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64652</v>
+        <v>2.64322</v>
       </c>
       <c r="B87" t="n">
-        <v>4.87411</v>
+        <v>5.236899999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>4874.11</v>
+        <v>5236.9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67839</v>
+        <v>2.67522</v>
       </c>
       <c r="B88" t="n">
-        <v>4.81202</v>
+        <v>5.21328</v>
       </c>
       <c r="C88" t="n">
-        <v>4812.02</v>
+        <v>5213.28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70826</v>
+        <v>2.70722</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75337</v>
+        <v>5.1828</v>
       </c>
       <c r="C89" t="n">
-        <v>4753.37</v>
+        <v>5182.8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73905</v>
+        <v>2.73922</v>
       </c>
       <c r="B90" t="n">
-        <v>4.72606</v>
+        <v>5.1581</v>
       </c>
       <c r="C90" t="n">
-        <v>4726.06</v>
+        <v>5158.1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.768</v>
+        <v>2.76902</v>
       </c>
       <c r="B91" t="n">
-        <v>4.71366</v>
+        <v>5.13823</v>
       </c>
       <c r="C91" t="n">
-        <v>4713.66</v>
+        <v>5138.23</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79616</v>
+        <v>2.79782</v>
       </c>
       <c r="B92" t="n">
-        <v>4.70325</v>
+        <v>5.12069</v>
       </c>
       <c r="C92" t="n">
-        <v>4703.25</v>
+        <v>5120.69</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82432</v>
+        <v>2.82662</v>
       </c>
       <c r="B93" t="n">
-        <v>4.689979999999999</v>
+        <v>5.09503</v>
       </c>
       <c r="C93" t="n">
-        <v>4689.98</v>
+        <v>5095.03</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85248</v>
+        <v>2.85542</v>
       </c>
       <c r="B94" t="n">
-        <v>4.67227</v>
+        <v>5.05531</v>
       </c>
       <c r="C94" t="n">
-        <v>4672.27</v>
+        <v>5055.31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88726</v>
+        <v>2.88422</v>
       </c>
       <c r="B95" t="n">
-        <v>4.65217</v>
+        <v>5.043270000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>4652.17</v>
+        <v>5043.27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92246</v>
+        <v>2.91302</v>
       </c>
       <c r="B96" t="n">
-        <v>4.624899999999999</v>
+        <v>5.01854</v>
       </c>
       <c r="C96" t="n">
-        <v>4624.9</v>
+        <v>5018.54</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95643</v>
+        <v>2.94182</v>
       </c>
       <c r="B97" t="n">
-        <v>4.59791</v>
+        <v>4.979229999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>4597.91</v>
+        <v>4979.23</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98843</v>
+        <v>2.97062</v>
       </c>
       <c r="B98" t="n">
-        <v>4.57813</v>
+        <v>4.975899999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>4578.13</v>
+        <v>4975.9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.02043</v>
+        <v>2.99942</v>
       </c>
       <c r="B99" t="n">
-        <v>4.55145</v>
+        <v>4.89346</v>
       </c>
       <c r="C99" t="n">
-        <v>4551.45</v>
+        <v>4893.46</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.05243</v>
+        <v>3.02822</v>
       </c>
       <c r="B100" t="n">
-        <v>4.52816</v>
+        <v>4.90793</v>
       </c>
       <c r="C100" t="n">
-        <v>4528.16</v>
+        <v>4907.93</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.08443</v>
+        <v>3.05818</v>
       </c>
       <c r="B101" t="n">
-        <v>4.49175</v>
+        <v>4.8548</v>
       </c>
       <c r="C101" t="n">
-        <v>4491.75</v>
+        <v>4854.8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.11643</v>
+        <v>3.09223</v>
       </c>
       <c r="B102" t="n">
-        <v>4.470890000000001</v>
+        <v>4.82017</v>
       </c>
       <c r="C102" t="n">
-        <v>4470.89</v>
+        <v>4820.17</v>
       </c>
     </row>
   </sheetData>
